--- a/assets/templates/import-expenses-template.xlsx
+++ b/assets/templates/import-expenses-template.xlsx
@@ -22,7 +22,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Waterfall ID</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">International Title 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// Or Waterfall Id</t>
+    </r>
   </si>
   <si>
     <r>
@@ -332,13 +354,13 @@
   <dimension ref="A10:AI40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
